--- a/data/globalTables/inspectionList.xlsx
+++ b/data/globalTables/inspectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>dispatchCode</t>
   </si>
@@ -25,14 +25,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>质检时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>inspectionTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>检验员</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -45,14 +37,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>checkingResult</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -89,14 +73,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>订单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>salesOrder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>批次号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -106,10 +82,6 @@
   </si>
   <si>
     <t>S17110906F1044218012014310500100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171109</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -556,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,281 +541,217 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
         <v>1801306</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F8" s="1">
         <v>1801306</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/globalTables/inspectionList.xlsx
+++ b/data/globalTables/inspectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>dispatchCode</t>
   </si>
@@ -25,6 +25,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>质检时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspectionTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>检验员</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -37,6 +45,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>checkingResult</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -73,6 +89,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>订单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesOrder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>批次号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -82,6 +106,10 @@
   </si>
   <si>
     <t>S17110906F1044218012014310500100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S171109</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -528,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,217 +569,281 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="G8" s="1">
         <v>1801306</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/globalTables/inspectionList.xlsx
+++ b/data/globalTables/inspectionList.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\紫华\MESSystem_180506\MESSystem\data\globalTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF2D2181-B7E1-41B6-AC1B-7497DB1B483C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="5460"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="5460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>dispatchCode</t>
   </si>
@@ -25,14 +31,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>质检时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>inspectionTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>检验员</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -45,14 +43,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>checkingResult</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -89,14 +79,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>订单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>salesOrder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>批次号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -106,10 +88,6 @@
   </si>
   <si>
     <t>S17110906F1044218012014310500100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171109</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -176,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,8 +234,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,12 +243,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,9 +326,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,281 +584,217 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1801306</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
         <v>1801306</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F8" s="1">
         <v>1801306</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1801306</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -853,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -866,7 +817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/globalTables/inspectionList.xlsx
+++ b/data/globalTables/inspectionList.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\紫华\MESSystem_180506\MESSystem\data\globalTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF2D2181-B7E1-41B6-AC1B-7497DB1B483C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="5460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,8 +228,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,15 +237,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -293,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,26 +317,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,23 +352,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -817,7 +774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
